--- a/Base/Teams/Lions/Players Data.xlsx
+++ b/Base/Teams/Lions/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Lions/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_EB08911C286BD5F2572133D4E2EA4577E132368D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F47D8B5-B26A-43A6-A820-1D1711A5B959}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +47,9 @@
     <t>J.Cabinda</t>
   </si>
   <si>
+    <t>A.St. Brown</t>
+  </si>
+  <si>
     <t>K.Raymond</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>T.Williams</t>
-  </si>
-  <si>
-    <t>A.St. Brown</t>
   </si>
   <si>
     <t>Q.Cephus</t>
@@ -107,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +165,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,27 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,24 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,16 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -536,41 +484,41 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -588,18 +536,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -608,9 +556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -628,18 +576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -648,24 +596,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -674,50 +642,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -732,9 +698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -758,19 +724,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -784,15 +750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -810,77 +776,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
       <c r="G8">
         <v>3</v>
       </c>
@@ -888,9 +854,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -914,18 +880,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -940,9 +906,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -966,9 +932,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -992,15 +958,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1018,24 +984,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1044,61 +1010,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
         <v>7</v>
       </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>

--- a/Base/Teams/Lions/Players Data.xlsx
+++ b/Base/Teams/Lions/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Lions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CB5CB013F2FBD5D5AD99D2D5E3EA4577E132113E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E466A30-030C-4C5E-821C-1771D626CC26}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +53,9 @@
     <t>J.Cabinda</t>
   </si>
   <si>
+    <t>C.Reynolds</t>
+  </si>
+  <si>
     <t>A.St. Brown</t>
   </si>
   <si>
@@ -96,13 +105,19 @@
   </si>
   <si>
     <t>D.Fells</t>
+  </si>
+  <si>
+    <t>S.Zylstra</t>
+  </si>
+  <si>
+    <t>D.Swift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +180,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +318,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +511,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -484,124 +545,124 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -616,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -624,16 +685,36 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -642,74 +723,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -724,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -750,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -776,15 +859,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -796,39 +879,39 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -836,51 +919,51 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -888,25 +971,25 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -914,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -923,16 +1006,16 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -940,39 +1023,39 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -984,24 +1067,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1010,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1018,25 +1101,25 @@
         <v>24</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1044,25 +1127,25 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1070,21 +1153,73 @@
         <v>26</v>
       </c>
       <c r="C17">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Lions/Players Data.xlsx
+++ b/Base/Teams/Lions/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Lions/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_CB5CB013F2FBD5D5AD99D2D5E3EA4577E132113E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E466A30-030C-4C5E-821C-1771D626CC26}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +35,9 @@
     <t>J.Goff</t>
   </si>
   <si>
+    <t>D.Swift</t>
+  </si>
+  <si>
     <t>J.Williams</t>
   </si>
   <si>
@@ -108,16 +105,13 @@
   </si>
   <si>
     <t>S.Zylstra</t>
-  </si>
-  <si>
-    <t>D.Swift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,14 +174,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,27 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,24 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,16 +461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -557,12 +505,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>74</v>
@@ -577,12 +525,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -597,12 +545,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -617,15 +565,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -637,12 +585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -657,63 +605,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -723,44 +691,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>67</v>
@@ -781,12 +747,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -807,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -815,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -833,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -841,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -859,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -867,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -879,24 +845,24 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -905,39 +871,39 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -945,51 +911,51 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -997,25 +963,25 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1023,7 +989,7 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1032,16 +998,16 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1049,39 +1015,39 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1093,33 +1059,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1127,25 +1093,25 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1153,25 +1119,25 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1179,25 +1145,25 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1205,21 +1171,47 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Lions/Players Data.xlsx
+++ b/Base/Teams/Lions/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,9 @@
     <t>K.Raymond</t>
   </si>
   <si>
+    <t>S.Zylstra</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>D.Fells</t>
-  </si>
-  <si>
-    <t>S.Zylstra</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -613,16 +613,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -673,16 +673,36 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -703,22 +723,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -833,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -859,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -882,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -911,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
         <v>5</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -937,22 +957,22 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
         <v>4</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -960,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -986,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -995,10 +1015,10 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1012,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1038,13 +1058,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1053,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1090,13 +1110,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1116,22 +1136,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1142,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>71</v>
@@ -1168,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1194,7 +1214,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>6</v>

--- a/Base/Teams/Lions/Players Data.xlsx
+++ b/Base/Teams/Lions/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>J.Goff</t>
+  </si>
+  <si>
+    <t>T.Boyle</t>
   </si>
   <si>
     <t>D.Swift</t>
@@ -462,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -533,13 +536,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>14</v>
@@ -553,16 +556,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -573,16 +576,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -593,13 +596,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -613,16 +616,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -633,16 +636,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -653,13 +656,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -670,19 +673,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -690,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -702,6 +705,26 @@
         <v>1</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -723,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -746,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -761,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -772,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -798,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -824,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -850,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -876,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>7</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -902,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -928,25 +951,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
       <c r="F9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -954,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -980,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1006,25 +1029,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
       <c r="E12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1032,19 +1055,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1058,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1084,7 +1107,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1110,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1136,7 +1159,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1162,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>71</v>
@@ -1188,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1214,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>6</v>
